--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F8" s="3">
         <v>37100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>37800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>37400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>36400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>39600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>38300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>39300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>38900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>36200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>34100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>32000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>29100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1070,7 @@
         <v>300</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -1034,10 +1079,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1052,13 +1097,19 @@
         <v>300</v>
       </c>
       <c r="O15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F17" s="3">
         <v>19900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>21200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>17400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>18600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>15400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F18" s="3">
         <v>17200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>17500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>16200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>20200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>19700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>18400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>16600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>13700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-9400</v>
       </c>
       <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>22200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-48100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>17400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>18400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>18300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>16300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>21000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>19800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>43400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>20000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>17600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>14700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-34100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>17200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>16000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>20700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>19900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>43100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>19700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>17400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-34400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-57400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>13800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>19400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>17400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>17700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>41600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>23000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>25400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,27 +1709,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-26500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-22200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>48100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>11000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>11000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>52500</v>
+      </c>
+      <c r="F41" s="3">
         <v>35700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>33800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>38100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>31900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>52500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>27300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>63400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>47900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>34700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>43500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,43 +2249,49 @@
         <v>32700</v>
       </c>
       <c r="E43" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>32700</v>
+      </c>
+      <c r="G43" s="3">
         <v>35100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>35300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>37400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>36700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>36700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>41300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>36000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>33600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>32200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>31300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>28500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,52 +2334,64 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
         <v>2400</v>
       </c>
       <c r="F45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>1000</v>
       </c>
       <c r="L45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>800</v>
       </c>
       <c r="P45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>800</v>
+      </c>
+      <c r="R45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,96 +2434,114 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F47" s="3">
         <v>53300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>40500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>39000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>50500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>58200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>20900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>21100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>21700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>28200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>27000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>25400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>22300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E48" s="3">
         <v>19400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G48" s="3">
         <v>19700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F52" s="3">
         <v>34700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>35500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>36700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>38300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>37000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>38000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>39300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>40700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>75000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>76500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>77600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>77100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>199500</v>
+      </c>
+      <c r="F54" s="3">
         <v>177700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>166900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>147600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>171000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>170400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>154800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>136200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>169000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>191900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>177700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>162000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>179100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44800</v>
+      </c>
+      <c r="F57" s="3">
         <v>31900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>26300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>18100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>37600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>32600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>23400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>19400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>12500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>24700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,37 +2974,43 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F59" s="3">
         <v>14100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>15100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>168000</v>
+      </c>
+      <c r="F66" s="3">
         <v>148900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>140900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>124700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>138000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>141000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>126800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>110000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>136700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>158900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>147400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>133500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>150600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F72" s="3">
         <v>28500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>25500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>22700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>28900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>26900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>23100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>25800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>23300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>21200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>22300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F76" s="3">
         <v>28800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>22900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>28000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>32300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>33000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>30300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>28500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>11000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,37 +4040,43 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F89" s="3">
         <v>29500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>27800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>20000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>28800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>33800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>20500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>23800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>23500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>16200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4393,18 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
@@ -3972,34 +4413,40 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>15500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-34200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500</v>
+        <v>-8200</v>
       </c>
       <c r="E96" s="3">
         <v>-500</v>
       </c>
       <c r="F96" s="3">
-        <v>-9000</v>
+        <v>-500</v>
       </c>
       <c r="G96" s="3">
         <v>-500</v>
       </c>
       <c r="H96" s="3">
-        <v>-500</v>
+        <v>-9000</v>
       </c>
       <c r="I96" s="3">
         <v>-500</v>
       </c>
       <c r="J96" s="3">
-        <v>-7600</v>
+        <v>-500</v>
       </c>
       <c r="K96" s="3">
         <v>-500</v>
       </c>
       <c r="L96" s="3">
-        <v>-500</v>
+        <v>-7600</v>
       </c>
       <c r="M96" s="3">
         <v>-500</v>
       </c>
       <c r="N96" s="3">
-        <v>-4900</v>
+        <v>-500</v>
       </c>
       <c r="O96" s="3">
         <v>-500</v>
       </c>
       <c r="P96" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-14000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-39900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-15400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-15200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-40500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-22300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-3800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-23400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-20600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>25200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-36100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>15500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>14500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-23300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>12500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E8" s="3">
         <v>34700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1076,31 +1099,31 @@
         <v>300</v>
       </c>
       <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
       </c>
       <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>11100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,119 +1278,126 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-48100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-34100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
@@ -1365,23 +1405,23 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1389,114 +1429,123 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-34400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2100</v>
       </c>
       <c r="I24" s="3">
         <v>2100</v>
       </c>
       <c r="J24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2200</v>
       </c>
       <c r="L24" s="3">
         <v>2200</v>
       </c>
       <c r="M24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-57400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3500</v>
       </c>
       <c r="L27" s="3">
         <v>3500</v>
       </c>
       <c r="M27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N27" s="3">
         <v>25400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-26500</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>9400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>48100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3500</v>
       </c>
       <c r="L33" s="3">
         <v>3500</v>
       </c>
       <c r="M33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3500</v>
       </c>
       <c r="L35" s="3">
         <v>3500</v>
       </c>
       <c r="M35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E41" s="3">
         <v>20500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E43" s="3">
         <v>32700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>36700</v>
       </c>
       <c r="K43" s="3">
         <v>36700</v>
       </c>
       <c r="L43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="M43" s="3">
         <v>41300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,58 +2436,64 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,108 +2542,117 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E47" s="3">
         <v>24600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>55900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>53300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>40500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>50500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>58200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E48" s="3">
         <v>18500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>19400</v>
       </c>
       <c r="F48" s="3">
         <v>19400</v>
       </c>
       <c r="G48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H48" s="3">
         <v>19700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E52" s="3">
         <v>32600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>75000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>77600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E54" s="3">
         <v>131500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>199500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>147600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>171000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>170400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>136200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>169000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>191900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>177700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>162000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>179100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E57" s="3">
         <v>21200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,29 +3114,32 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3012,8 +3149,8 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E66" s="3">
         <v>109500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>140900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>124700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>138000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>141000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>136700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>158900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>147400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>133500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>150600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E72" s="3">
         <v>18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>26400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>26900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E76" s="3">
         <v>21900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>28500</v>
       </c>
       <c r="Q76" s="3">
         <v>28500</v>
       </c>
       <c r="R76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="S76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3500</v>
       </c>
       <c r="L81" s="3">
         <v>3500</v>
       </c>
       <c r="M81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,7 +4245,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4055,7 +4254,7 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -4064,10 +4263,10 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4404,38 +4625,38 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>23200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,16 +4848,17 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-500</v>
       </c>
       <c r="F96" s="3">
         <v>-500</v>
@@ -4633,10 +4867,10 @@
         <v>-500</v>
       </c>
       <c r="H96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-500</v>
       </c>
       <c r="J96" s="3">
         <v>-500</v>
@@ -4645,10 +4879,10 @@
         <v>-500</v>
       </c>
       <c r="L96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-500</v>
       </c>
       <c r="N96" s="3">
         <v>-500</v>
@@ -4657,16 +4891,19 @@
         <v>-500</v>
       </c>
       <c r="P96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-500</v>
       </c>
       <c r="R96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-39900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-40500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E8" s="3">
         <v>30100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,31 +1125,31 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E18" s="3">
         <v>10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,128 +1312,135 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-48100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E21" s="3">
         <v>14500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-34100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
@@ -1408,23 +1448,23 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1432,120 +1472,129 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-34400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2100</v>
       </c>
       <c r="J24" s="3">
         <v>2100</v>
       </c>
       <c r="K24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L24" s="3">
         <v>1300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2200</v>
       </c>
       <c r="M24" s="3">
         <v>2200</v>
       </c>
       <c r="N24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-57400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>3500</v>
       </c>
       <c r="M27" s="3">
         <v>3500</v>
       </c>
       <c r="N27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O27" s="3">
         <v>25400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-26500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>48100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>3500</v>
       </c>
       <c r="M33" s="3">
         <v>3500</v>
       </c>
       <c r="N33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>3500</v>
       </c>
       <c r="M35" s="3">
         <v>3500</v>
       </c>
       <c r="N35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E41" s="3">
         <v>33100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E43" s="3">
         <v>34400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>36700</v>
       </c>
       <c r="L43" s="3">
         <v>36700</v>
       </c>
       <c r="M43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="N43" s="3">
         <v>41300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,61 +2535,67 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,114 +2647,123 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E47" s="3">
         <v>29400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>55900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>53300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>40500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>50500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>58200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E48" s="3">
         <v>17700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>19400</v>
       </c>
       <c r="G48" s="3">
         <v>19400</v>
       </c>
       <c r="H48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I48" s="3">
         <v>19700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E52" s="3">
         <v>31800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>40700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>75000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E54" s="3">
         <v>148300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>199500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>166900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>147600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>171000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>170400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>136200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>169000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>191900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>177700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>162000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>179100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,84 +3141,88 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E57" s="3">
         <v>25300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3117,32 +3251,35 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E66" s="3">
         <v>124700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>140900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>124700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>138000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>141000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>136700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>158900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>147400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>133500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>150600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E72" s="3">
         <v>19900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>26400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E76" s="3">
         <v>23600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>28500</v>
       </c>
       <c r="R76" s="3">
         <v>28500</v>
       </c>
       <c r="S76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="T76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>3500</v>
       </c>
       <c r="M81" s="3">
         <v>3500</v>
       </c>
       <c r="N81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,7 +4447,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4257,7 +4456,7 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -4266,10 +4465,10 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E89" s="3">
         <v>16900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,38 +4849,38 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>23200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,10 +5092,10 @@
         <v>-500</v>
       </c>
       <c r="E96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-500</v>
       </c>
       <c r="G96" s="3">
         <v>-500</v>
@@ -4870,10 +5104,10 @@
         <v>-500</v>
       </c>
       <c r="I96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-500</v>
       </c>
       <c r="K96" s="3">
         <v>-500</v>
@@ -4882,10 +5116,10 @@
         <v>-500</v>
       </c>
       <c r="M96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-500</v>
       </c>
       <c r="O96" s="3">
         <v>-500</v>
@@ -4894,16 +5128,19 @@
         <v>-500</v>
       </c>
       <c r="Q96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-500</v>
       </c>
       <c r="S96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-40500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E102" s="3">
         <v>12600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E8" s="3">
         <v>33900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,31 +1150,31 @@
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
       </c>
       <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>200</v>
-      </c>
-      <c r="R15" s="3">
-        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E17" s="3">
         <v>19000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E18" s="3">
         <v>14900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-48100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E21" s="3">
         <v>15800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-34100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,14 +1475,14 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1451,23 +1490,23 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1475,126 +1514,135 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E23" s="3">
         <v>15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-34400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2100</v>
       </c>
       <c r="K24" s="3">
         <v>2100</v>
       </c>
       <c r="L24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M24" s="3">
         <v>1300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2200</v>
       </c>
       <c r="N24" s="3">
         <v>2200</v>
       </c>
       <c r="O24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-57400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E26" s="3">
         <v>15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>3500</v>
       </c>
       <c r="N27" s="3">
         <v>3500</v>
       </c>
       <c r="O27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P27" s="3">
         <v>25400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1855,12 +1915,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-26500</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>48100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3500</v>
       </c>
       <c r="N33" s="3">
         <v>3500</v>
       </c>
       <c r="O33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>3500</v>
       </c>
       <c r="N35" s="3">
         <v>3500</v>
       </c>
       <c r="O35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E41" s="3">
         <v>49200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>47900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E43" s="3">
         <v>32700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>36700</v>
       </c>
       <c r="M43" s="3">
         <v>36700</v>
       </c>
       <c r="N43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="O43" s="3">
         <v>41300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,64 +2633,70 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,120 +2751,129 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E47" s="3">
         <v>26700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>55900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>53300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>40500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>58200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E48" s="3">
         <v>16800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>19400</v>
       </c>
       <c r="H48" s="3">
         <v>19400</v>
       </c>
       <c r="I48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J48" s="3">
         <v>19700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E52" s="3">
         <v>30700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>40700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E54" s="3">
         <v>158400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>148300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>131500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>199500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>166900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>147600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>171000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>170400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>136200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>169000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>191900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>177700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>162000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>179100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E57" s="3">
         <v>28600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,11 +3340,11 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3224,8 +3357,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3254,35 +3387,38 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3292,8 +3428,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E66" s="3">
         <v>132700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>124700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>168000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>148900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>140900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>138000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>141000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>136700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>158900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>147400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>133500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>150600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E72" s="3">
         <v>22100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>26400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>25500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E76" s="3">
         <v>25700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>28500</v>
       </c>
       <c r="S76" s="3">
         <v>28500</v>
       </c>
       <c r="T76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="U76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>3500</v>
       </c>
       <c r="N81" s="3">
         <v>3500</v>
       </c>
       <c r="O81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,7 +4648,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4459,7 +4657,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -4468,10 +4666,10 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E89" s="3">
         <v>24400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4852,38 +5072,38 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>23200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,10 +5328,10 @@
         <v>-500</v>
       </c>
       <c r="F96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-500</v>
       </c>
       <c r="H96" s="3">
         <v>-500</v>
@@ -5107,10 +5340,10 @@
         <v>-500</v>
       </c>
       <c r="J96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-500</v>
       </c>
       <c r="L96" s="3">
         <v>-500</v>
@@ -5119,10 +5352,10 @@
         <v>-500</v>
       </c>
       <c r="N96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-500</v>
       </c>
       <c r="P96" s="3">
         <v>-500</v>
@@ -5131,16 +5364,19 @@
         <v>-500</v>
       </c>
       <c r="R96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-500</v>
       </c>
       <c r="T96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-39900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-40500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>16100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E8" s="3">
         <v>39900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,31 +1176,31 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
       </c>
       <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
-      </c>
-      <c r="S15" s="3">
-        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E17" s="3">
         <v>21600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E18" s="3">
         <v>18300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,131 +1379,138 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-48100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E21" s="3">
         <v>24700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-34100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1478,14 +1518,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1493,23 +1533,23 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
@@ -1517,132 +1557,141 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E23" s="3">
         <v>24400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-34400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2100</v>
       </c>
       <c r="L24" s="3">
         <v>2100</v>
       </c>
       <c r="M24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N24" s="3">
         <v>1300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2200</v>
       </c>
       <c r="O24" s="3">
         <v>2200</v>
       </c>
       <c r="P24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-57400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E26" s="3">
         <v>22300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>3500</v>
       </c>
       <c r="O27" s="3">
         <v>3500</v>
       </c>
       <c r="P27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>25400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1918,12 +1979,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>48100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>3500</v>
       </c>
       <c r="O33" s="3">
         <v>3500</v>
       </c>
       <c r="P33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>3500</v>
       </c>
       <c r="O35" s="3">
         <v>3500</v>
       </c>
       <c r="P35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E41" s="3">
         <v>65500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>47900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E43" s="3">
         <v>39600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>36700</v>
       </c>
       <c r="N43" s="3">
         <v>36700</v>
       </c>
       <c r="O43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="P43" s="3">
         <v>41300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>36000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>31300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>28500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,67 +2732,73 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,126 +2856,135 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E47" s="3">
         <v>34100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>55900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>53300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>40500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>58200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E48" s="3">
         <v>16000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>19400</v>
       </c>
       <c r="I48" s="3">
         <v>19400</v>
       </c>
       <c r="J48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K48" s="3">
         <v>19700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E52" s="3">
         <v>30900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>35500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>77100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E54" s="3">
         <v>188700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>158400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>148300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>131500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>199500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>166900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>147600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>170400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>136200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>169000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>191900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>177700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>162000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>179100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E57" s="3">
         <v>36400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,11 +3477,11 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3360,8 +3494,8 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3390,38 +3524,41 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3431,8 +3568,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E66" s="3">
         <v>157600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>132700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>124700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>140900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>138000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>141000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>126800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>136700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>158900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>147400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>133500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>150600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E72" s="3">
         <v>25600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>26400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E76" s="3">
         <v>31100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>28500</v>
       </c>
       <c r="T76" s="3">
         <v>28500</v>
       </c>
       <c r="U76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="V76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>3500</v>
       </c>
       <c r="O81" s="3">
         <v>3500</v>
       </c>
       <c r="P81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,7 +4850,7 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4660,7 +4859,7 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -4669,10 +4868,10 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>19900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5075,38 +5296,38 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>23200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500</v>
+        <v>-4300</v>
       </c>
       <c r="E96" s="3">
         <v>-500</v>
@@ -5331,10 +5565,10 @@
         <v>-500</v>
       </c>
       <c r="G96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-500</v>
       </c>
       <c r="I96" s="3">
         <v>-500</v>
@@ -5343,10 +5577,10 @@
         <v>-500</v>
       </c>
       <c r="K96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-500</v>
       </c>
       <c r="M96" s="3">
         <v>-500</v>
@@ -5355,10 +5589,10 @@
         <v>-500</v>
       </c>
       <c r="O96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-500</v>
       </c>
       <c r="Q96" s="3">
         <v>-500</v>
@@ -5367,16 +5601,19 @@
         <v>-500</v>
       </c>
       <c r="S96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-500</v>
       </c>
       <c r="U96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-45200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-39900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-40500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E102" s="3">
         <v>16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-36100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E8" s="3">
         <v>48400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>39900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>36200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1179,31 +1202,31 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>200</v>
-      </c>
-      <c r="T15" s="3">
-        <v>300</v>
       </c>
       <c r="U15" s="3">
         <v>300</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E18" s="3">
         <v>25600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,140 +1413,147 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-48100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E21" s="3">
         <v>27700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-34100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1521,14 +1561,14 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1536,23 +1576,23 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
@@ -1560,138 +1600,147 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E23" s="3">
         <v>27400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-34400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2100</v>
       </c>
       <c r="M24" s="3">
         <v>2100</v>
       </c>
       <c r="N24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O24" s="3">
         <v>1300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2200</v>
       </c>
       <c r="P24" s="3">
         <v>2200</v>
       </c>
       <c r="Q24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-57400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E26" s="3">
         <v>25000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>3500</v>
       </c>
       <c r="P27" s="3">
         <v>3500</v>
       </c>
       <c r="Q27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R27" s="3">
         <v>25400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-26500</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>48100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3500</v>
       </c>
       <c r="P33" s="3">
         <v>3500</v>
       </c>
       <c r="Q33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>3500</v>
       </c>
       <c r="P35" s="3">
         <v>3500</v>
       </c>
       <c r="Q35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E41" s="3">
         <v>29700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E43" s="3">
         <v>44900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>36700</v>
       </c>
       <c r="O43" s="3">
         <v>36700</v>
       </c>
       <c r="P43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>41300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>28500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,70 +2831,76 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,132 +2961,141 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E47" s="3">
         <v>41400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>55900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>53300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>39000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>21700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E48" s="3">
         <v>15100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>19400</v>
       </c>
       <c r="J48" s="3">
         <v>19400</v>
       </c>
       <c r="K48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="L48" s="3">
         <v>19700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E52" s="3">
         <v>28900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>34700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>75000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>77600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>77100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E54" s="3">
         <v>162200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>188700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>158400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>148300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>131500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>199500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>177700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>147600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>170400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>136200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>169000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>191900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>177700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>162000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>179100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,75 +3533,79 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E57" s="3">
         <v>19100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -3480,11 +3614,11 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3497,8 +3631,8 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3527,41 +3661,44 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E59" s="3">
         <v>11300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3571,8 +3708,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E66" s="3">
         <v>131300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>157600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>132700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>124700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>140900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>124700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>138000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>141000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>126800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>136700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>158900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>147400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>133500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>150600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E72" s="3">
         <v>25500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>26400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E76" s="3">
         <v>30800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>28500</v>
       </c>
       <c r="U76" s="3">
         <v>28500</v>
       </c>
       <c r="V76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="W76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>3500</v>
       </c>
       <c r="P81" s="3">
         <v>3500</v>
       </c>
       <c r="Q81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,7 +5052,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4862,7 +5061,7 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -4871,10 +5070,10 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E89" s="3">
         <v>4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5299,38 +5520,38 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>23200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,16 +5783,17 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4300</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-500</v>
       </c>
       <c r="F96" s="3">
         <v>-500</v>
@@ -5568,10 +5802,10 @@
         <v>-500</v>
       </c>
       <c r="H96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-500</v>
       </c>
       <c r="J96" s="3">
         <v>-500</v>
@@ -5580,10 +5814,10 @@
         <v>-500</v>
       </c>
       <c r="L96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-500</v>
       </c>
       <c r="N96" s="3">
         <v>-500</v>
@@ -5592,10 +5826,10 @@
         <v>-500</v>
       </c>
       <c r="P96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-500</v>
       </c>
       <c r="R96" s="3">
         <v>-500</v>
@@ -5604,16 +5838,19 @@
         <v>-500</v>
       </c>
       <c r="T96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-500</v>
       </c>
       <c r="V96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-45200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-40500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E8" s="3">
         <v>50900</v>
       </c>
-      <c r="E8" s="3">
-        <v>48400</v>
-      </c>
       <c r="F8" s="3">
+        <v>45900</v>
+      </c>
+      <c r="G8" s="3">
         <v>39900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>36200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,31 +1228,31 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
+        <v>300</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
       <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>200</v>
-      </c>
-      <c r="U15" s="3">
-        <v>300</v>
       </c>
       <c r="V15" s="3">
         <v>300</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E17" s="3">
         <v>23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E18" s="3">
         <v>27900</v>
       </c>
-      <c r="E18" s="3">
-        <v>25600</v>
-      </c>
       <c r="F18" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G18" s="3">
         <v>18300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,149 +1447,156 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>600</v>
+      </c>
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="O20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>600</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>22200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-48100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E21" s="3">
         <v>29900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-34100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1564,14 +1604,14 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1579,23 +1619,23 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
@@ -1603,144 +1643,153 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E23" s="3">
         <v>29700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-34400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2100</v>
       </c>
       <c r="N24" s="3">
         <v>2100</v>
       </c>
       <c r="O24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P24" s="3">
         <v>1300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2200</v>
       </c>
       <c r="Q24" s="3">
         <v>2200</v>
       </c>
       <c r="R24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-57400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E26" s="3">
         <v>27100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3500</v>
       </c>
       <c r="Q27" s="3">
         <v>3500</v>
       </c>
       <c r="R27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S27" s="3">
         <v>25400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,17 +2089,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-26500</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="O32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-22200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>48100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3500</v>
       </c>
       <c r="Q33" s="3">
         <v>3500</v>
       </c>
       <c r="R33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3500</v>
       </c>
       <c r="Q35" s="3">
         <v>3500</v>
       </c>
       <c r="R35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E41" s="3">
         <v>53500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>47900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E43" s="3">
         <v>47400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>36700</v>
       </c>
       <c r="P43" s="3">
         <v>36700</v>
       </c>
       <c r="Q43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="R43" s="3">
         <v>41300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>33600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>31300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>28500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,73 +2930,79 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,138 +3066,147 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E47" s="3">
         <v>56400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>55900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>39000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>58200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>21100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>21700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E48" s="3">
         <v>14200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>19400</v>
       </c>
       <c r="K48" s="3">
         <v>19400</v>
       </c>
       <c r="L48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="M48" s="3">
         <v>19700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E52" s="3">
         <v>29600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>40700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>75000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>77600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>77100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E54" s="3">
         <v>203000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>162200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>188700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>158400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>148300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>131500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>199500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>177700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>166900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>147600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>171000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>170400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>136200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>169000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>191900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>177700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>162000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>179100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E57" s="3">
         <v>28700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3742,7 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -3617,11 +3751,11 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3634,8 +3768,8 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3664,44 +3798,47 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3711,8 +3848,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>189100</v>
+      </c>
+      <c r="E66" s="3">
         <v>167400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>131300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>157600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>132700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>124700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>168000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>140900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>124700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>138000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>141000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>126800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>136700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>158900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>147400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>133500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>150600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E72" s="3">
         <v>29600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>26400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E76" s="3">
         <v>35500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>28500</v>
       </c>
       <c r="V76" s="3">
         <v>28500</v>
       </c>
       <c r="W76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="X76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>3500</v>
       </c>
       <c r="Q81" s="3">
         <v>3500</v>
       </c>
       <c r="R81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,7 +5254,7 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5064,7 +5263,7 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -5073,10 +5272,10 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E89" s="3">
         <v>21500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5523,38 +5744,38 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>23200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,10 +6027,10 @@
         <v>-500</v>
       </c>
       <c r="E96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-500</v>
       </c>
       <c r="G96" s="3">
         <v>-500</v>
@@ -5805,10 +6039,10 @@
         <v>-500</v>
       </c>
       <c r="I96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-500</v>
       </c>
       <c r="K96" s="3">
         <v>-500</v>
@@ -5817,10 +6051,10 @@
         <v>-500</v>
       </c>
       <c r="M96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-500</v>
       </c>
       <c r="O96" s="3">
         <v>-500</v>
@@ -5829,10 +6063,10 @@
         <v>-500</v>
       </c>
       <c r="Q96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-500</v>
       </c>
       <c r="S96" s="3">
         <v>-500</v>
@@ -5841,16 +6075,19 @@
         <v>-500</v>
       </c>
       <c r="U96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-500</v>
       </c>
       <c r="W96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-39900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-40500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E102" s="3">
         <v>23800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-36100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E8" s="3">
         <v>51600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>36200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>34100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>29100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,31 +1253,31 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
+        <v>300</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
       </c>
       <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
         <v>300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>200</v>
-      </c>
-      <c r="V15" s="3">
-        <v>300</v>
       </c>
       <c r="W15" s="3">
         <v>300</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E17" s="3">
         <v>23200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E18" s="3">
         <v>28400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>22200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-48100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E21" s="3">
         <v>29100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>17600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-34100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,11 +1634,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1607,14 +1646,14 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1622,23 +1661,23 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
@@ -1646,150 +1685,159 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E23" s="3">
         <v>28800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>43100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-34400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2100</v>
       </c>
       <c r="O24" s="3">
         <v>2100</v>
       </c>
       <c r="P24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2200</v>
       </c>
       <c r="R24" s="3">
         <v>2200</v>
       </c>
       <c r="S24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-57400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E26" s="3">
         <v>28700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>3500</v>
       </c>
       <c r="R27" s="3">
         <v>3500</v>
       </c>
       <c r="S27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T27" s="3">
         <v>25400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2152,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2110,12 +2170,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-26500</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-22200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>48100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>3500</v>
       </c>
       <c r="R33" s="3">
         <v>3500</v>
       </c>
       <c r="S33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>3500</v>
       </c>
       <c r="R35" s="3">
         <v>3500</v>
       </c>
       <c r="S35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E41" s="3">
         <v>70000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>38100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>47900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2886,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E43" s="3">
         <v>47500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>36700</v>
       </c>
       <c r="Q43" s="3">
         <v>36700</v>
       </c>
       <c r="R43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="S43" s="3">
         <v>41300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>36000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>33600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>32200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>31300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>28500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,76 +3028,82 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,144 +3170,153 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E47" s="3">
         <v>67600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>56400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>50500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>58200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>21100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>13300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>19400</v>
       </c>
       <c r="L48" s="3">
         <v>19400</v>
       </c>
       <c r="M48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N48" s="3">
         <v>19700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E52" s="3">
         <v>27900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>36700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>40700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>75000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>76500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>77600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>77100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>264300</v>
+      </c>
+      <c r="E54" s="3">
         <v>228200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>162200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>188700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>158400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>148300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>131500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>199500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>177700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>166900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>147600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>171000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>170400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>154800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>136200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>169000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>191900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>177700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>162000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>179100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,87 +3794,91 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E57" s="3">
         <v>35200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -3754,11 +3887,11 @@
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3771,8 +3904,8 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3801,47 +3934,50 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E59" s="3">
         <v>10100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3851,8 +3987,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221700</v>
+      </c>
+      <c r="E66" s="3">
         <v>189100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>167400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>131300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>157600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>132700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>124700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>140900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>124700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>138000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>141000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>126800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>110000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>136700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>158900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>147400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>133500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>150600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E72" s="3">
         <v>34100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E76" s="3">
         <v>39100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>28500</v>
       </c>
       <c r="W76" s="3">
         <v>28500</v>
       </c>
       <c r="X76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Y76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>3500</v>
       </c>
       <c r="R81" s="3">
         <v>3500</v>
       </c>
       <c r="S81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5257,7 +5455,7 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5266,7 +5464,7 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -5275,10 +5473,10 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>300</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E89" s="3">
         <v>29100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4100</v>
       </c>
-      <c r="G89" s="3">
-        <v>19900</v>
-      </c>
       <c r="H89" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I89" s="3">
         <v>24400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>23500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +5939,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5747,38 +5967,38 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>15500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6030,10 +6263,10 @@
         <v>-500</v>
       </c>
       <c r="F96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-500</v>
       </c>
       <c r="H96" s="3">
         <v>-500</v>
@@ -6042,10 +6275,10 @@
         <v>-500</v>
       </c>
       <c r="J96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-500</v>
       </c>
       <c r="L96" s="3">
         <v>-500</v>
@@ -6054,10 +6287,10 @@
         <v>-500</v>
       </c>
       <c r="N96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-500</v>
       </c>
       <c r="P96" s="3">
         <v>-500</v>
@@ -6066,10 +6299,10 @@
         <v>-500</v>
       </c>
       <c r="R96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-500</v>
       </c>
       <c r="T96" s="3">
         <v>-500</v>
@@ -6078,16 +6311,19 @@
         <v>-500</v>
       </c>
       <c r="V96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-500</v>
       </c>
       <c r="X96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-39900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-40500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-36100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E8" s="3">
         <v>51000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>38900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>36200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>34100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>29100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,31 +1279,31 @@
         <v>300</v>
       </c>
       <c r="O15" s="3">
+        <v>300</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
       </c>
       <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
         <v>300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>200</v>
-      </c>
-      <c r="W15" s="3">
-        <v>300</v>
       </c>
       <c r="X15" s="3">
         <v>300</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E17" s="3">
         <v>24500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E18" s="3">
         <v>26500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,155 +1514,162 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>22200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-48100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E21" s="3">
         <v>28800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>17600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-34100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1637,11 +1677,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1649,14 +1689,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1664,23 +1704,23 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
@@ -1688,156 +1728,165 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E23" s="3">
         <v>28500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>19700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-34400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2100</v>
       </c>
       <c r="P24" s="3">
         <v>2100</v>
       </c>
       <c r="Q24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R24" s="3">
         <v>1300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2200</v>
       </c>
       <c r="S24" s="3">
         <v>2200</v>
       </c>
       <c r="T24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-57400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E26" s="3">
         <v>25700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>41600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>3500</v>
       </c>
       <c r="S27" s="3">
         <v>3500</v>
       </c>
       <c r="T27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U27" s="3">
         <v>25400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,17 +2216,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2173,12 +2234,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-26500</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-22200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>48100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3500</v>
       </c>
       <c r="S33" s="3">
         <v>3500</v>
       </c>
       <c r="T33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3500</v>
       </c>
       <c r="S35" s="3">
         <v>3500</v>
       </c>
       <c r="T35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E41" s="3">
         <v>81100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>38100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>47900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>34700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E43" s="3">
         <v>45300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>36700</v>
       </c>
       <c r="R43" s="3">
         <v>36700</v>
       </c>
       <c r="S43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="T43" s="3">
         <v>41300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>33600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>32200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>31300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>28500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,70 +3139,73 @@
         <v>1700</v>
       </c>
       <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,150 +3275,159 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E47" s="3">
         <v>95500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>67600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>56400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>39000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>58200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>21700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>25400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>22300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>19400</v>
       </c>
       <c r="M48" s="3">
         <v>19400</v>
       </c>
       <c r="N48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="O48" s="3">
         <v>19700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E52" s="3">
         <v>26900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>38000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>40700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>75000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>76500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>77600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>77100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>220100</v>
+      </c>
+      <c r="E54" s="3">
         <v>264300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>228200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>203000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>162200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>188700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>158400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>148300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>131500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>199500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>177700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>166900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>147600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>171000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>170400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>154800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>136200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>169000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>191900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>177700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>162000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>179100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,93 +3925,97 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E57" s="3">
         <v>44200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>24700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
@@ -3890,11 +4024,11 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3907,8 +4041,8 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3937,50 +4071,53 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3990,8 +4127,8 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E66" s="3">
         <v>221700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>189100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>167400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>131300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>157600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>132700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>168000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>148900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>140900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>124700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>138000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>141000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>126800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>110000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>136700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>158900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>147400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>133500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>150600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>29600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E76" s="3">
         <v>42600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>28500</v>
       </c>
       <c r="X76" s="3">
         <v>28500</v>
       </c>
       <c r="Y76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Z76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3500</v>
       </c>
       <c r="S81" s="3">
         <v>3500</v>
       </c>
       <c r="T81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5458,7 +5657,7 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -5467,7 +5666,7 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -5476,10 +5675,10 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>300</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>22200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>33800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>23800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>23500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,17 +6160,18 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5970,38 +6191,38 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>23200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>15500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,13 +6484,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500</v>
+        <v>-9200</v>
       </c>
       <c r="E96" s="3">
         <v>-500</v>
@@ -6266,10 +6500,10 @@
         <v>-500</v>
       </c>
       <c r="G96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-500</v>
       </c>
       <c r="I96" s="3">
         <v>-500</v>
@@ -6278,10 +6512,10 @@
         <v>-500</v>
       </c>
       <c r="K96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-500</v>
       </c>
       <c r="M96" s="3">
         <v>-500</v>
@@ -6290,10 +6524,10 @@
         <v>-500</v>
       </c>
       <c r="O96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-500</v>
       </c>
       <c r="Q96" s="3">
         <v>-500</v>
@@ -6302,10 +6536,10 @@
         <v>-500</v>
       </c>
       <c r="S96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-500</v>
       </c>
       <c r="U96" s="3">
         <v>-500</v>
@@ -6314,16 +6548,19 @@
         <v>-500</v>
       </c>
       <c r="W96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-500</v>
       </c>
       <c r="Y96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-36000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-40500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-22300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E102" s="3">
         <v>11200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-36100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PZN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>PZN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E8" s="3">
         <v>52800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>39300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>36200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>34100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>29100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1282,31 +1305,31 @@
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
       </c>
       <c r="T15" s="3">
+        <v>200</v>
+      </c>
+      <c r="U15" s="3">
         <v>300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>200</v>
-      </c>
-      <c r="X15" s="3">
-        <v>300</v>
       </c>
       <c r="Y15" s="3">
         <v>300</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E17" s="3">
         <v>26100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E18" s="3">
         <v>26700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,164 +1548,171 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>22200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-48100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E21" s="3">
         <v>27000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>43400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>17600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-34100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1680,11 +1720,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1692,14 +1732,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1707,23 +1747,23 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
@@ -1731,162 +1771,171 @@
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E23" s="3">
         <v>26700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>19700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-34400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>8200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2100</v>
       </c>
       <c r="Q24" s="3">
         <v>2100</v>
       </c>
       <c r="R24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S24" s="3">
         <v>1300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2200</v>
       </c>
       <c r="T24" s="3">
         <v>2200</v>
       </c>
       <c r="U24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-57400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E26" s="3">
         <v>18500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>41600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>3500</v>
       </c>
       <c r="T27" s="3">
         <v>3500</v>
       </c>
       <c r="U27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V27" s="3">
         <v>25400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,17 +2280,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2237,12 +2298,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-26500</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-22200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>48100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>3500</v>
       </c>
       <c r="T33" s="3">
         <v>3500</v>
       </c>
       <c r="U33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>3500</v>
       </c>
       <c r="T35" s="3">
         <v>3500</v>
       </c>
       <c r="U35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E41" s="3">
         <v>35600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>52500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>63400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>47900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>34700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>43500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E43" s="3">
         <v>48400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>36700</v>
       </c>
       <c r="S43" s="3">
         <v>36700</v>
       </c>
       <c r="T43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="U43" s="3">
         <v>41300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>36000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>33600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>32200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>31300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>28500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,82 +3226,88 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E45" s="3">
         <v>1700</v>
       </c>
       <c r="F45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,156 +3380,165 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E47" s="3">
         <v>71600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>95500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>67600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>56400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>39000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>58200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>21100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>21700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>25400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>22300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E48" s="3">
         <v>36500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>19400</v>
       </c>
       <c r="N48" s="3">
         <v>19400</v>
       </c>
       <c r="O48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="P48" s="3">
         <v>19700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E52" s="3">
         <v>26300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>35500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>37000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>38000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>40700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>75000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>76500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>77600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>77100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>267400</v>
+      </c>
+      <c r="E54" s="3">
         <v>220100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>264300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>228200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>203000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>162200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>188700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>158400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>148300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>131500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>199500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>177700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>166900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>147600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>171000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>170400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>154800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>136200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>169000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>191900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>177700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>162000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>179100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,99 +4056,103 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E57" s="3">
         <v>28000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>25400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>24700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
@@ -4027,11 +4161,11 @@
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
@@ -4044,8 +4178,8 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4074,53 +4208,56 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E59" s="3">
         <v>33000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4130,8 +4267,8 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E66" s="3">
         <v>182800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>221700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>189100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>167400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>131300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>157600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>132700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>168000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>148900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>140900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>124700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>138000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>141000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>126800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>110000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>136700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>158900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>147400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>133500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>150600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E72" s="3">
         <v>32000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>25600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E76" s="3">
         <v>37300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>30300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>28500</v>
       </c>
       <c r="Y76" s="3">
         <v>28500</v>
       </c>
       <c r="Z76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AA76" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>3500</v>
       </c>
       <c r="T81" s="3">
         <v>3500</v>
       </c>
       <c r="U81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5660,7 +5859,7 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5669,7 +5868,7 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -5678,10 +5877,10 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
-      </c>
-      <c r="X83" s="3">
-        <v>300</v>
       </c>
       <c r="Y83" s="3">
         <v>300</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>29500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>23800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>23500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,20 +6381,21 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -6194,38 +6415,38 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>23200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>15500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,16 +6718,17 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-500</v>
       </c>
       <c r="F96" s="3">
         <v>-500</v>
@@ -6503,10 +6737,10 @@
         <v>-500</v>
       </c>
       <c r="H96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-4300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-500</v>
       </c>
       <c r="J96" s="3">
         <v>-500</v>
@@ -6515,10 +6749,10 @@
         <v>-500</v>
       </c>
       <c r="L96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-500</v>
       </c>
       <c r="N96" s="3">
         <v>-500</v>
@@ -6527,10 +6761,10 @@
         <v>-500</v>
       </c>
       <c r="P96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-500</v>
       </c>
       <c r="R96" s="3">
         <v>-500</v>
@@ -6539,10 +6773,10 @@
         <v>-500</v>
       </c>
       <c r="T96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-500</v>
       </c>
       <c r="V96" s="3">
         <v>-500</v>
@@ -6551,16 +6785,19 @@
         <v>-500</v>
       </c>
       <c r="X96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-500</v>
       </c>
       <c r="Z96" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-46100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-45200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-40500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-22300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-36100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>6200</v>
       </c>
     </row>
